--- a/Post/Index/data/Machine learning evaluation results.xlsx
+++ b/Post/Index/data/Machine learning evaluation results.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.913196177793333</v>
+        <v>0.9014993348817504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03347254612866236</v>
+        <v>0.03305119138366781</v>
       </c>
       <c r="D2" t="n">
-        <v>1.357581583964052</v>
+        <v>1.347386181896617</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.711515159818148</v>
+        <v>2.733782248349123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0276080448253547</v>
+        <v>0.02783059746211098</v>
       </c>
       <c r="D3" t="n">
-        <v>3.631384686291431</v>
+        <v>3.616760357051053</v>
       </c>
     </row>
   </sheetData>

--- a/Post/Index/data/Machine learning evaluation results.xlsx
+++ b/Post/Index/data/Machine learning evaluation results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>train mae</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>mape</t>
+          <t>train mape</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>train rmse</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>test mae</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>test mape</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>test rmse</t>
         </is>
       </c>
     </row>
@@ -457,12 +472,21 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0.2700893733105085</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00953806481334395</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5379730031701508</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.9014993348817504</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>0.03305119138366781</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>1.347386181896617</v>
       </c>
     </row>
@@ -473,12 +497,21 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.6969126094638212</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00737990064151845</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.261868577259427</v>
+      </c>
+      <c r="E3" t="n">
         <v>2.733782248349123</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>0.02783059746211098</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>3.616760357051053</v>
       </c>
     </row>
